--- a/artfynd/A 13625-2023.xlsx
+++ b/artfynd/A 13625-2023.xlsx
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108718925</v>
+        <v>108718934</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>437441.8026971049</v>
+        <v>437251.0097213153</v>
       </c>
       <c r="R3" t="n">
-        <v>7006433.882732502</v>
+        <v>7006251.485929966</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108718923</v>
+        <v>108718930</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -956,16 +956,20 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sällsjön SÖ, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>437693.1568600214</v>
+        <v>437403.8165098006</v>
       </c>
       <c r="R4" t="n">
-        <v>7006333.720904024</v>
+        <v>7006294.143844516</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,6 +1012,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108718934</v>
+        <v>108718928</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1078,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437251.0097213153</v>
+        <v>437260.4723100049</v>
       </c>
       <c r="R5" t="n">
-        <v>7006251.485929966</v>
+        <v>7006319.508680805</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1137,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108718940</v>
+        <v>108718932</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1199,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>437142.4856154905</v>
+        <v>437306.259954496</v>
       </c>
       <c r="R6" t="n">
-        <v>7006787.91673798</v>
+        <v>7006254.930521684</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1258,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1276,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108718930</v>
+        <v>108718925</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1320,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>437403.8165098006</v>
+        <v>437441.8026971049</v>
       </c>
       <c r="R7" t="n">
-        <v>7006294.143844516</v>
+        <v>7006433.882732502</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108718927</v>
+        <v>108718923</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1431,20 +1440,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sällsjön SÖ, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>437347.3375837047</v>
+        <v>437693.1568600214</v>
       </c>
       <c r="R8" t="n">
-        <v>7006460.555242279</v>
+        <v>7006333.720904024</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,11 +1492,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,7 +1518,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108718949</v>
+        <v>108718940</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>437232.1395232935</v>
+        <v>437142.4856154905</v>
       </c>
       <c r="R9" t="n">
-        <v>7006653.843598615</v>
+        <v>7006787.91673798</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108718943</v>
+        <v>108718927</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437156.0212149328</v>
+        <v>437347.3375837047</v>
       </c>
       <c r="R10" t="n">
-        <v>7006739.780347738</v>
+        <v>7006460.555242279</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108718928</v>
+        <v>108718949</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>437260.4723100049</v>
+        <v>437232.1395232935</v>
       </c>
       <c r="R11" t="n">
-        <v>7006319.508680805</v>
+        <v>7006653.843598615</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108718947</v>
+        <v>108718943</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1925,10 +1925,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437196.0548698546</v>
+        <v>437156.0212149328</v>
       </c>
       <c r="R12" t="n">
-        <v>7006728.614212831</v>
+        <v>7006739.780347738</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,7 +2002,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108718926</v>
+        <v>108718947</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437430.2372204551</v>
+        <v>437196.0548698546</v>
       </c>
       <c r="R13" t="n">
-        <v>7006420.556342849</v>
+        <v>7006728.614212831</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2123,7 +2123,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108718953</v>
+        <v>108718926</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>438033.4045416421</v>
+        <v>437430.2372204551</v>
       </c>
       <c r="R14" t="n">
-        <v>7006292.397694888</v>
+        <v>7006420.556342849</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2244,7 +2244,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108718948</v>
+        <v>108718953</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>437215.8330926147</v>
+        <v>438033.4045416421</v>
       </c>
       <c r="R15" t="n">
-        <v>7006675.839449953</v>
+        <v>7006292.397694888</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2365,7 +2365,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108718938</v>
+        <v>108718948</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>437083.5155771806</v>
+        <v>437215.8330926147</v>
       </c>
       <c r="R16" t="n">
-        <v>7006709.125224494</v>
+        <v>7006675.839449953</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2486,7 +2486,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108718939</v>
+        <v>108718938</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>437092.8160429197</v>
+        <v>437083.5155771806</v>
       </c>
       <c r="R17" t="n">
-        <v>7006699.008007247</v>
+        <v>7006709.125224494</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2607,7 +2607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108718950</v>
+        <v>108718939</v>
       </c>
       <c r="B18" t="n">
         <v>56395</v>
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>437330.4075466889</v>
+        <v>437092.8160429197</v>
       </c>
       <c r="R18" t="n">
-        <v>7006637.031554679</v>
+        <v>7006699.008007247</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2728,7 +2728,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108718941</v>
+        <v>108718950</v>
       </c>
       <c r="B19" t="n">
         <v>56395</v>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>437149.3458266784</v>
+        <v>437330.4075466889</v>
       </c>
       <c r="R19" t="n">
-        <v>7006791.847929343</v>
+        <v>7006637.031554679</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2849,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108718944</v>
+        <v>108718941</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>437153.3087088031</v>
+        <v>437149.3458266784</v>
       </c>
       <c r="R20" t="n">
-        <v>7006739.833113052</v>
+        <v>7006791.847929343</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2970,7 +2970,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108718952</v>
+        <v>108718944</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -3014,10 +3014,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>437864.8221849522</v>
+        <v>437153.3087088031</v>
       </c>
       <c r="R21" t="n">
-        <v>7006346.224326964</v>
+        <v>7006739.833113052</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3091,7 +3091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108718946</v>
+        <v>108718952</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>437193.3774615529</v>
+        <v>437864.8221849522</v>
       </c>
       <c r="R22" t="n">
-        <v>7006730.472810662</v>
+        <v>7006346.224326964</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108718932</v>
+        <v>108718946</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>437306.259954496</v>
+        <v>437193.3774615529</v>
       </c>
       <c r="R23" t="n">
-        <v>7006254.930521684</v>
+        <v>7006730.472810662</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 13625-2023.xlsx
+++ b/artfynd/A 13625-2023.xlsx
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108718934</v>
+        <v>108718925</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>437251.0097213153</v>
+        <v>437441.8026971049</v>
       </c>
       <c r="R3" t="n">
-        <v>7006251.485929966</v>
+        <v>7006433.882732502</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108718930</v>
+        <v>108718923</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -956,20 +956,16 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sällsjön SÖ, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>437403.8165098006</v>
+        <v>437693.1568600214</v>
       </c>
       <c r="R4" t="n">
-        <v>7006294.143844516</v>
+        <v>7006333.720904024</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,11 +1008,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108718928</v>
+        <v>108718934</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1087,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437260.4723100049</v>
+        <v>437251.0097213153</v>
       </c>
       <c r="R5" t="n">
-        <v>7006319.508680805</v>
+        <v>7006251.485929966</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,7 +1128,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,7 +1155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108718932</v>
+        <v>108718940</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1208,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>437306.259954496</v>
+        <v>437142.4856154905</v>
       </c>
       <c r="R6" t="n">
-        <v>7006254.930521684</v>
+        <v>7006787.91673798</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,7 +1249,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1285,7 +1276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108718925</v>
+        <v>108718930</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1329,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>437441.8026971049</v>
+        <v>437403.8165098006</v>
       </c>
       <c r="R7" t="n">
-        <v>7006433.882732502</v>
+        <v>7006294.143844516</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1406,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108718923</v>
+        <v>108718927</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1440,16 +1431,20 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sällsjön SÖ, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>437693.1568600214</v>
+        <v>437347.3375837047</v>
       </c>
       <c r="R8" t="n">
-        <v>7006333.720904024</v>
+        <v>7006460.555242279</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,6 +1487,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,7 +1518,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108718940</v>
+        <v>108718949</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>437142.4856154905</v>
+        <v>437232.1395232935</v>
       </c>
       <c r="R9" t="n">
-        <v>7006787.91673798</v>
+        <v>7006653.843598615</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108718927</v>
+        <v>108718943</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437347.3375837047</v>
+        <v>437156.0212149328</v>
       </c>
       <c r="R10" t="n">
-        <v>7006460.555242279</v>
+        <v>7006739.780347738</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108718949</v>
+        <v>108718928</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>437232.1395232935</v>
+        <v>437260.4723100049</v>
       </c>
       <c r="R11" t="n">
-        <v>7006653.843598615</v>
+        <v>7006319.508680805</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108718943</v>
+        <v>108718947</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1925,10 +1925,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>437156.0212149328</v>
+        <v>437196.0548698546</v>
       </c>
       <c r="R12" t="n">
-        <v>7006739.780347738</v>
+        <v>7006728.614212831</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,7 +2002,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108718947</v>
+        <v>108718926</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>437196.0548698546</v>
+        <v>437430.2372204551</v>
       </c>
       <c r="R13" t="n">
-        <v>7006728.614212831</v>
+        <v>7006420.556342849</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2123,7 +2123,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108718926</v>
+        <v>108718953</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>437430.2372204551</v>
+        <v>438033.4045416421</v>
       </c>
       <c r="R14" t="n">
-        <v>7006420.556342849</v>
+        <v>7006292.397694888</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2244,7 +2244,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108718953</v>
+        <v>108718948</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>438033.4045416421</v>
+        <v>437215.8330926147</v>
       </c>
       <c r="R15" t="n">
-        <v>7006292.397694888</v>
+        <v>7006675.839449953</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2365,7 +2365,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108718948</v>
+        <v>108718938</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>437215.8330926147</v>
+        <v>437083.5155771806</v>
       </c>
       <c r="R16" t="n">
-        <v>7006675.839449953</v>
+        <v>7006709.125224494</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2486,7 +2486,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108718938</v>
+        <v>108718939</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>437083.5155771806</v>
+        <v>437092.8160429197</v>
       </c>
       <c r="R17" t="n">
-        <v>7006709.125224494</v>
+        <v>7006699.008007247</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2607,7 +2607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108718939</v>
+        <v>108718950</v>
       </c>
       <c r="B18" t="n">
         <v>56395</v>
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>437092.8160429197</v>
+        <v>437330.4075466889</v>
       </c>
       <c r="R18" t="n">
-        <v>7006699.008007247</v>
+        <v>7006637.031554679</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2728,7 +2728,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108718950</v>
+        <v>108718941</v>
       </c>
       <c r="B19" t="n">
         <v>56395</v>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>437330.4075466889</v>
+        <v>437149.3458266784</v>
       </c>
       <c r="R19" t="n">
-        <v>7006637.031554679</v>
+        <v>7006791.847929343</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2849,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108718941</v>
+        <v>108718944</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>437149.3458266784</v>
+        <v>437153.3087088031</v>
       </c>
       <c r="R20" t="n">
-        <v>7006791.847929343</v>
+        <v>7006739.833113052</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2970,7 +2970,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108718944</v>
+        <v>108718952</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -3014,10 +3014,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>437153.3087088031</v>
+        <v>437864.8221849522</v>
       </c>
       <c r="R21" t="n">
-        <v>7006739.833113052</v>
+        <v>7006346.224326964</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3091,7 +3091,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108718952</v>
+        <v>108718946</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>437864.8221849522</v>
+        <v>437193.3774615529</v>
       </c>
       <c r="R22" t="n">
-        <v>7006346.224326964</v>
+        <v>7006730.472810662</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108718946</v>
+        <v>108718932</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>437193.3774615529</v>
+        <v>437306.259954496</v>
       </c>
       <c r="R23" t="n">
-        <v>7006730.472810662</v>
+        <v>7006254.930521684</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
